--- a/public/format/format-laporan.xlsx
+++ b/public/format/format-laporan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KEVIN\KULIAH\SMT 6\PKL\pkl\public\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9FE3C8B-DAE0-40AE-86DD-E38ECC7E7D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90D676B-6AB3-4FBD-AD35-EFFC40BFC3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0671F42A-EAFE-49F7-B53D-5DD30C7AEE2C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Tikfns</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Tanggal Dipinjam</t>
+  </si>
+  <si>
+    <t>Tanggal Jatuh Tempo</t>
   </si>
 </sst>
 </file>
@@ -398,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6300549-6D06-41C6-A585-8BCC849728EF}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -410,19 +413,20 @@
     <col min="3" max="3" width="19.36328125" customWidth="1"/>
     <col min="4" max="4" width="15.453125" customWidth="1"/>
     <col min="5" max="5" width="16.6328125" customWidth="1"/>
+    <col min="6" max="6" width="20.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -437,6 +441,9 @@
       </c>
       <c r="E4" t="s">
         <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/public/format/format-laporan.xlsx
+++ b/public/format/format-laporan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KEVIN\KULIAH\SMT 6\PKL\pkl\public\format\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SULTHAN FIRMANSYAH\Documents\SEMESTER 5\PKL\PKL\public\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90D676B-6AB3-4FBD-AD35-EFFC40BFC3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC60FAC-266A-4DF7-9CB4-4A1280E3B808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0671F42A-EAFE-49F7-B53D-5DD30C7AEE2C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0671F42A-EAFE-49F7-B53D-5DD30C7AEE2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>Tikfns</t>
-  </si>
-  <si>
-    <t>irngefonngro</t>
-  </si>
-  <si>
     <t>No.</t>
   </si>
   <si>
@@ -49,6 +43,12 @@
   </si>
   <si>
     <t>Tanggal Jatuh Tempo</t>
+  </si>
+  <si>
+    <t>Report Pengembalian Dokumen</t>
+  </si>
+  <si>
+    <t>Dicetak pada tanggal</t>
   </si>
 </sst>
 </file>
@@ -85,8 +85,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,46 +405,46 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.453125" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="16.6328125" customWidth="1"/>
-    <col min="6" max="6" width="20.6328125" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
